--- a/Assets/06.Table/GachaEvent.xlsx
+++ b/Assets/06.Table/GachaEvent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAFEB7B-EA38-4552-A4BC-A048B3BD7BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64127474-3B32-49AF-A1D9-B1C34794D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>비무 대회 입장권</t>
-  </si>
-  <si>
-    <t>비무 대회 입장권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>옥</t>
-  </si>
-  <si>
     <t>수련의돌</t>
   </si>
   <si>
@@ -207,16 +201,10 @@
   </si>
   <si>
     <t>도술꽃</t>
-  </si>
-  <si>
-    <t>도술꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>심득 조각</t>
-  </si>
-  <si>
-    <t>심득 조각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,16 +244,10 @@
   </si>
   <si>
     <t>영혼석 소탕권</t>
-  </si>
-  <si>
-    <t>영혼석 소탕권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수미꽃 소탕권</t>
-  </si>
-  <si>
-    <t>수미꽃 소탕권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -281,6 +263,56 @@
   </si>
   <si>
     <t>확률 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 뽑기 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 선물 뽑기 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 구미호 구슬 소탕권</t>
+  </si>
+  <si>
+    <t>검은 구미호 구슬 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약</t>
+  </si>
+  <si>
+    <t>태극 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월석 소탕권</t>
+  </si>
+  <si>
+    <t>초월석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련의방 입장권</t>
+  </si>
+  <si>
+    <t>수련의방 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련서</t>
+  </si>
+  <si>
+    <t>수련서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 조각</t>
+  </si>
+  <si>
+    <t>태극 조각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,9 +530,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -538,7 +570,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -644,7 +676,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -786,7 +818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,7 +830,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -835,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>100000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -855,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>2000000000000</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -875,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -895,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -915,13 +947,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -935,13 +967,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>100000</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -955,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>100000</v>
@@ -975,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>9001</v>
       </c>
       <c r="C9">
         <v>100000</v>
@@ -995,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9001</v>
+        <v>9008</v>
       </c>
       <c r="C10">
         <v>100000</v>
@@ -1015,10 +1047,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9008</v>
+        <v>9010</v>
       </c>
       <c r="C11">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
@@ -1035,10 +1067,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="C12">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
@@ -1055,10 +1087,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9016</v>
+        <v>9026</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
@@ -1075,13 +1107,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9026</v>
+        <v>9049</v>
       </c>
       <c r="C14">
         <v>10000</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1095,13 +1127,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9032</v>
+        <v>9048</v>
       </c>
       <c r="C15">
-        <v>500000</v>
+        <v>10000</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1115,13 +1147,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9043</v>
+        <v>9064</v>
       </c>
       <c r="C16">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1135,13 +1167,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9048</v>
+        <v>9017</v>
       </c>
       <c r="C17">
-        <v>10000</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1155,13 +1187,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -1175,13 +1207,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9023</v>
+        <v>9028</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1195,13 +1227,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9017</v>
+        <v>9033</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -1215,13 +1247,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9027</v>
+        <v>9038</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -1235,13 +1267,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -1255,13 +1287,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9033</v>
+        <v>9041</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -1275,13 +1307,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9038</v>
+        <v>9055</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -1295,13 +1327,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9044</v>
+        <v>9050</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -1315,13 +1347,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9057</v>
+        <v>9053</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -1339,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94408C3E-AE05-43E0-A911-0698D2C83889}">
-  <dimension ref="B2:L29"/>
+  <dimension ref="B2:L60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1356,7 +1388,11 @@
     <col min="11" max="11" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1374,16 +1410,16 @@
         <v>13</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -1430,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1">
         <v>0.06</v>
@@ -1462,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1">
         <v>0.06</v>
@@ -1489,7 +1525,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1">
         <v>0.06</v>
@@ -1508,7 +1544,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>25</v>
@@ -1539,7 +1575,7 @@
     </row>
     <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8">
         <f>C6/C8</f>
@@ -1580,7 +1616,7 @@
         <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1">
         <v>0.05</v>
@@ -1605,7 +1641,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1">
         <v>0.05</v>
@@ -1630,7 +1666,7 @@
         <v>9001</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H12" s="1">
         <v>0.05</v>
@@ -1655,7 +1691,7 @@
         <v>9008</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1">
         <v>0.05</v>
@@ -1680,7 +1716,7 @@
         <v>9010</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H14" s="1">
         <v>0.04</v>
@@ -1708,7 +1744,7 @@
         <v>9016</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H15" s="1">
         <v>0.04</v>
@@ -1733,7 +1769,7 @@
         <v>9026</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H16" s="1">
         <v>0.04</v>
@@ -1758,7 +1794,7 @@
         <v>9032</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H17" s="1">
         <v>0.04</v>
@@ -1783,7 +1819,7 @@
         <v>9043</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1">
         <v>0.04</v>
@@ -1808,7 +1844,7 @@
         <v>9048</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H19" s="1">
         <v>0.03</v>
@@ -1836,7 +1872,7 @@
         <v>9009</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H20" s="1">
         <v>0.03</v>
@@ -1861,7 +1897,7 @@
         <v>9023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H21" s="1">
         <v>0.03</v>
@@ -1886,7 +1922,7 @@
         <v>9017</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H22" s="1">
         <v>0.03</v>
@@ -1911,7 +1947,7 @@
         <v>9027</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H23" s="1">
         <v>0.03</v>
@@ -1936,7 +1972,7 @@
         <v>9028</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H24" s="1">
         <v>0.02</v>
@@ -1964,7 +2000,7 @@
         <v>9033</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H25" s="1">
         <v>0.02</v>
@@ -1989,7 +2025,7 @@
         <v>9038</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H26" s="1">
         <v>0.02</v>
@@ -2014,7 +2050,7 @@
         <v>9044</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H27" s="1">
         <v>0.02</v>
@@ -2039,7 +2075,7 @@
         <v>9057</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" s="1">
         <v>0.02</v>
@@ -2063,6 +2099,720 @@
       </c>
       <c r="I29" s="2">
         <f>SUM(I4:I28)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="6">
+        <v>42</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="7">
+        <v>10</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I35" s="1">
+        <f>H35*100</f>
+        <v>6</v>
+      </c>
+      <c r="J35" s="15">
+        <v>2000000000000</v>
+      </c>
+      <c r="K35">
+        <f>J35*$C$9</f>
+        <v>33600000000000</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="7"/>
+      <c r="E36" s="10">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" ref="I36:I59" si="3">H36*100</f>
+        <v>6</v>
+      </c>
+      <c r="J36" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:K58" si="4">J36*$C$9</f>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="7">
+        <f>C34*C35</f>
+        <v>420</v>
+      </c>
+      <c r="E37" s="10">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>20</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J37" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="K37">
+        <f>J37*$C$9</f>
+        <v>16800000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="7"/>
+      <c r="E38" s="10">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J38" s="15">
+        <v>50000</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38:K60" si="5">J38*$C$9</f>
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="7">
+        <v>25</v>
+      </c>
+      <c r="E39" s="10">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>46</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J39" s="15">
+        <v>100000</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="8">
+        <f>C37/C39</f>
+        <v>16.8</v>
+      </c>
+      <c r="E40" s="11">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1">
+        <v>73</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J40" s="15">
+        <v>100000</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>1680000</v>
+      </c>
+      <c r="L40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E41" s="11">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1">
+        <v>88</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J41" s="15">
+        <v>100000</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E42" s="11">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1">
+        <v>9001</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J42" s="15">
+        <v>100000</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E43" s="11">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1">
+        <v>9008</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J43" s="15">
+        <v>100000</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E44" s="11">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1">
+        <v>9010</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J44" s="15">
+        <v>20000</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E45" s="12">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1">
+        <v>9016</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>16800</v>
+      </c>
+      <c r="L45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E46" s="12">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1">
+        <v>9026</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J46" s="15">
+        <v>10000</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E47" s="12">
+        <v>13</v>
+      </c>
+      <c r="F47" s="1">
+        <v>9049</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J47" s="15">
+        <v>10000</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E48" s="12">
+        <v>14</v>
+      </c>
+      <c r="F48" s="1">
+        <v>9048</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J48" s="15">
+        <v>10000</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E49" s="12">
+        <v>15</v>
+      </c>
+      <c r="F49" s="1">
+        <v>9064</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J49" s="15">
+        <v>5000</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E50" s="13">
+        <v>16</v>
+      </c>
+      <c r="F50" s="1">
+        <v>9017</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J50" s="15">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>50.400000000000006</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E51" s="13">
+        <v>17</v>
+      </c>
+      <c r="F51" s="1">
+        <v>9027</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J51" s="15">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>50.400000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E52" s="13">
+        <v>18</v>
+      </c>
+      <c r="F52" s="1">
+        <v>9028</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J52" s="15">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E53" s="13">
+        <v>19</v>
+      </c>
+      <c r="F53" s="1">
+        <v>9033</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J53" s="15">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="5"/>
+        <v>50.400000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E54" s="13">
+        <v>20</v>
+      </c>
+      <c r="F54" s="1">
+        <v>9038</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J54" s="15">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="5"/>
+        <v>50.400000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E55" s="14">
+        <v>21</v>
+      </c>
+      <c r="F55" s="1">
+        <v>9044</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J55" s="15">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="5"/>
+        <v>50.400000000000006</v>
+      </c>
+      <c r="L55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E56" s="14">
+        <v>22</v>
+      </c>
+      <c r="F56" s="1">
+        <v>9041</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J56" s="15">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E57" s="14">
+        <v>23</v>
+      </c>
+      <c r="F57" s="1">
+        <v>9055</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J57" s="15">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E58" s="14">
+        <v>24</v>
+      </c>
+      <c r="F58" s="1">
+        <v>9050</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J58" s="15">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E59" s="14">
+        <v>25</v>
+      </c>
+      <c r="F59" s="1">
+        <v>9053</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J59" s="15">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <f>J59*$C$9</f>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="H60" s="2">
+        <f>SUM(H35:H59)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I60" s="2">
+        <f>SUM(I35:I59)</f>
         <v>100</v>
       </c>
     </row>

--- a/Assets/06.Table/GachaEvent.xlsx
+++ b/Assets/06.Table/GachaEvent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64127474-3B32-49AF-A1D9-B1C34794D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96294297-E2A6-4007-853A-27C62484E903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="88">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,78 +118,42 @@
   </si>
   <si>
     <t>수련의돌</t>
-  </si>
-  <si>
-    <t>수련의돌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>영혼 열쇠</t>
-  </si>
-  <si>
-    <t>영혼 열쇠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>천도 복숭아</t>
-  </si>
-  <si>
-    <t>천도 복숭아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴 불꽃</t>
-  </si>
-  <si>
-    <t>검조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>불멸석</t>
-  </si>
-  <si>
-    <t>불멸석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>천계꽃</t>
-  </si>
-  <si>
-    <t>천계꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>도깨비불</t>
-  </si>
-  <si>
-    <t>도깨비불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수미꽃</t>
-  </si>
-  <si>
-    <t>수미꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>영혼석</t>
-  </si>
-  <si>
-    <t>영혼석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수호환</t>
-  </si>
-  <si>
-    <t>수호환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>여우불씨</t>
-  </si>
-  <si>
-    <t>여우불씨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,9 +267,6 @@
   </si>
   <si>
     <t>수련서</t>
-  </si>
-  <si>
-    <t>수련서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,6 +274,93 @@
   </si>
   <si>
     <t>태극 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주년 전야제 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월광산 소탕권</t>
+  </si>
+  <si>
+    <t>초월광산 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자 혈자리 전수권</t>
+  </si>
+  <si>
+    <t>제자 혈자리 전수권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈의 기운</t>
+  </si>
+  <si>
+    <t>혈의 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자 수련서</t>
+  </si>
+  <si>
+    <t>제자 수련서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 영약</t>
+  </si>
+  <si>
+    <t>사신수 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무대회 입장권</t>
+  </si>
+  <si>
+    <t>비무대회 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심득 조각</t>
+  </si>
+  <si>
+    <t>만능 소탕권</t>
+  </si>
+  <si>
+    <t>만능 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">도술꽃 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">도술꽃 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여우불씨 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">여우불씨 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석 소탕권</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수호환 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">수호환 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 기운</t>
+  </si>
+  <si>
+    <t>사신수 기운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,6 +559,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,7 +881,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -867,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>9026</v>
       </c>
       <c r="C2">
-        <v>2000000000000</v>
+        <v>100000</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -887,13 +938,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>9016</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -907,13 +958,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>9032</v>
       </c>
       <c r="C4">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -927,13 +978,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>9043</v>
       </c>
       <c r="C5">
-        <v>50000</v>
+        <v>5000000</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -947,13 +998,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>9049</v>
       </c>
       <c r="C6">
         <v>100000</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -967,13 +1018,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>9048</v>
       </c>
       <c r="C7">
         <v>100000</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -987,13 +1038,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>9062</v>
       </c>
       <c r="C8">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1007,13 +1058,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9001</v>
+        <v>9065</v>
       </c>
       <c r="C9">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1027,13 +1078,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9008</v>
+        <v>9064</v>
       </c>
       <c r="C10">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1047,13 +1098,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9010</v>
+        <v>9023</v>
       </c>
       <c r="C11">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1067,13 +1118,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9016</v>
+        <v>9017</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1087,10 +1138,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9026</v>
+        <v>9027</v>
       </c>
       <c r="C13">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
@@ -1107,13 +1158,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9049</v>
+        <v>9028</v>
       </c>
       <c r="C14">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1127,13 +1178,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9048</v>
+        <v>9033</v>
       </c>
       <c r="C15">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1147,13 +1198,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9064</v>
+        <v>9050</v>
       </c>
       <c r="C16">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1167,13 +1218,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9017</v>
+        <v>9038</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1187,13 +1238,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9027</v>
+        <v>9044</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -1207,13 +1258,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9028</v>
+        <v>9041</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1227,13 +1278,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9033</v>
+        <v>9055</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -1247,13 +1298,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9038</v>
+        <v>9057</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -1267,13 +1318,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9044</v>
+        <v>9053</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -1287,13 +1338,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9041</v>
+        <v>9063</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -1307,13 +1358,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9055</v>
+        <v>9066</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -1327,13 +1378,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9050</v>
+        <v>9068</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -1347,13 +1398,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9053</v>
+        <v>9039</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -1371,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94408C3E-AE05-43E0-A911-0698D2C83889}">
-  <dimension ref="B2:L60"/>
+  <dimension ref="B2:P90"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35:J59"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65:G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1385,12 +1436,14 @@
     <col min="7" max="7" width="26.375" style="1" customWidth="1"/>
     <col min="8" max="9" width="10.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="17.375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="18.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -1410,15 +1463,15 @@
         <v>13</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1448,7 +1501,7 @@
       <c r="J4" s="15">
         <v>100000000</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="15">
         <f>J4*$C$9</f>
         <v>1680000000</v>
       </c>
@@ -1466,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1">
         <v>0.06</v>
@@ -1478,7 +1531,7 @@
       <c r="J5" s="15">
         <v>2000000000000</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="15">
         <f t="shared" ref="K5:K27" si="1">J5*$C$9</f>
         <v>33600000000000</v>
       </c>
@@ -1498,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1">
         <v>0.06</v>
@@ -1510,7 +1563,7 @@
       <c r="J6" s="15">
         <v>1000</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="15">
         <f>J6*$C$9</f>
         <v>16800</v>
       </c>
@@ -1525,7 +1578,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1">
         <v>0.06</v>
@@ -1537,7 +1590,7 @@
       <c r="J7" s="15">
         <v>1000000</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="15">
         <f t="shared" si="1"/>
         <v>16800000</v>
       </c>
@@ -1568,7 +1621,7 @@
       <c r="J8" s="15">
         <v>50000</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="15">
         <f t="shared" si="1"/>
         <v>840000</v>
       </c>
@@ -1600,7 +1653,7 @@
       <c r="J9" s="15">
         <v>100000</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="15">
         <f t="shared" si="1"/>
         <v>1680000</v>
       </c>
@@ -1616,7 +1669,7 @@
         <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1">
         <v>0.05</v>
@@ -1628,7 +1681,7 @@
       <c r="J10" s="15">
         <v>100000</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="15">
         <f t="shared" si="1"/>
         <v>1680000</v>
       </c>
@@ -1641,7 +1694,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1">
         <v>0.05</v>
@@ -1653,7 +1706,7 @@
       <c r="J11" s="15">
         <v>100000</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="15">
         <f t="shared" si="1"/>
         <v>1680000</v>
       </c>
@@ -1666,7 +1719,7 @@
         <v>9001</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1">
         <v>0.05</v>
@@ -1678,7 +1731,7 @@
       <c r="J12" s="15">
         <v>100000</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="15">
         <f t="shared" si="1"/>
         <v>1680000</v>
       </c>
@@ -1691,7 +1744,7 @@
         <v>9008</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1">
         <v>0.05</v>
@@ -1703,7 +1756,7 @@
       <c r="J13" s="15">
         <v>100000</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="15">
         <f t="shared" ref="K13:K26" si="2">J13*$C$9</f>
         <v>1680000</v>
       </c>
@@ -1716,7 +1769,7 @@
         <v>9010</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1">
         <v>0.04</v>
@@ -1728,7 +1781,7 @@
       <c r="J14" s="15">
         <v>20000</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="15">
         <f t="shared" si="2"/>
         <v>336000</v>
       </c>
@@ -1744,7 +1797,7 @@
         <v>9016</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1">
         <v>0.04</v>
@@ -1756,7 +1809,7 @@
       <c r="J15" s="15">
         <v>1000</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="15">
         <f t="shared" si="2"/>
         <v>16800</v>
       </c>
@@ -1769,7 +1822,7 @@
         <v>9026</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1">
         <v>0.04</v>
@@ -1781,7 +1834,7 @@
       <c r="J16" s="15">
         <v>10000</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="15">
         <f t="shared" si="2"/>
         <v>168000</v>
       </c>
@@ -1794,7 +1847,7 @@
         <v>9032</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1">
         <v>0.04</v>
@@ -1806,7 +1859,7 @@
       <c r="J17" s="15">
         <v>500000</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="15">
         <f t="shared" si="2"/>
         <v>8400000</v>
       </c>
@@ -1819,7 +1872,7 @@
         <v>9043</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1">
         <v>0.04</v>
@@ -1831,7 +1884,7 @@
       <c r="J18" s="15">
         <v>100000</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="15">
         <f t="shared" si="2"/>
         <v>1680000</v>
       </c>
@@ -1844,7 +1897,7 @@
         <v>9048</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H19" s="1">
         <v>0.03</v>
@@ -1856,7 +1909,7 @@
       <c r="J19" s="15">
         <v>10000</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="15">
         <f t="shared" si="2"/>
         <v>168000</v>
       </c>
@@ -1872,7 +1925,7 @@
         <v>9009</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H20" s="1">
         <v>0.03</v>
@@ -1884,7 +1937,7 @@
       <c r="J20" s="15">
         <v>10</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="15">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
@@ -1897,7 +1950,7 @@
         <v>9023</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H21" s="1">
         <v>0.03</v>
@@ -1909,7 +1962,7 @@
       <c r="J21" s="15">
         <v>7</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="15">
         <f t="shared" si="2"/>
         <v>117.60000000000001</v>
       </c>
@@ -1922,7 +1975,7 @@
         <v>9017</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H22" s="1">
         <v>0.03</v>
@@ -1934,7 +1987,7 @@
       <c r="J22" s="15">
         <v>3</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="15">
         <f t="shared" si="2"/>
         <v>50.400000000000006</v>
       </c>
@@ -1947,7 +2000,7 @@
         <v>9027</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H23" s="1">
         <v>0.03</v>
@@ -1959,7 +2012,7 @@
       <c r="J23" s="15">
         <v>3</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="15">
         <f t="shared" si="2"/>
         <v>50.400000000000006</v>
       </c>
@@ -1972,7 +2025,7 @@
         <v>9028</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1">
         <v>0.02</v>
@@ -1984,7 +2037,7 @@
       <c r="J24" s="15">
         <v>5</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="15">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
@@ -2000,7 +2053,7 @@
         <v>9033</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H25" s="1">
         <v>0.02</v>
@@ -2012,7 +2065,7 @@
       <c r="J25" s="15">
         <v>3</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="15">
         <f t="shared" si="2"/>
         <v>50.400000000000006</v>
       </c>
@@ -2025,7 +2078,7 @@
         <v>9038</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H26" s="1">
         <v>0.02</v>
@@ -2037,7 +2090,7 @@
       <c r="J26" s="15">
         <v>5</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="15">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
@@ -2050,7 +2103,7 @@
         <v>9044</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H27" s="1">
         <v>0.02</v>
@@ -2062,7 +2115,7 @@
       <c r="J27" s="15">
         <v>3</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="15">
         <f t="shared" si="1"/>
         <v>50.400000000000006</v>
       </c>
@@ -2087,7 +2140,7 @@
       <c r="J28" s="15">
         <v>1</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="15">
         <f>J28*$C$9</f>
         <v>16.8</v>
       </c>
@@ -2104,7 +2157,7 @@
     </row>
     <row r="33" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
@@ -2124,15 +2177,15 @@
         <v>13</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2150,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1">
         <v>0.06</v>
@@ -2162,7 +2215,7 @@
       <c r="J35" s="15">
         <v>2000000000000</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="15">
         <f>J35*$C$9</f>
         <v>33600000000000</v>
       </c>
@@ -2180,7 +2233,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H36" s="1">
         <v>0.06</v>
@@ -2192,8 +2245,8 @@
       <c r="J36" s="15">
         <v>1000</v>
       </c>
-      <c r="K36">
-        <f t="shared" ref="K36:K58" si="4">J36*$C$9</f>
+      <c r="K36" s="15">
+        <f t="shared" ref="K36" si="4">J36*$C$9</f>
         <v>16800</v>
       </c>
     </row>
@@ -2212,7 +2265,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H37" s="1">
         <v>0.06</v>
@@ -2224,7 +2277,7 @@
       <c r="J37" s="15">
         <v>1000000</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="15">
         <f>J37*$C$9</f>
         <v>16800000</v>
       </c>
@@ -2251,8 +2304,8 @@
       <c r="J38" s="15">
         <v>50000</v>
       </c>
-      <c r="K38">
-        <f t="shared" ref="K38:K60" si="5">J38*$C$9</f>
+      <c r="K38" s="15">
+        <f t="shared" ref="K38:K58" si="5">J38*$C$9</f>
         <v>840000</v>
       </c>
     </row>
@@ -2282,7 +2335,7 @@
       <c r="J39" s="15">
         <v>100000</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="15">
         <f t="shared" si="5"/>
         <v>1680000</v>
       </c>
@@ -2302,7 +2355,7 @@
         <v>73</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H40" s="1">
         <v>0.05</v>
@@ -2314,7 +2367,7 @@
       <c r="J40" s="15">
         <v>100000</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="15">
         <f t="shared" si="5"/>
         <v>1680000</v>
       </c>
@@ -2330,7 +2383,7 @@
         <v>88</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H41" s="1">
         <v>0.05</v>
@@ -2342,7 +2395,7 @@
       <c r="J41" s="15">
         <v>100000</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="15">
         <f t="shared" si="5"/>
         <v>1680000</v>
       </c>
@@ -2355,7 +2408,7 @@
         <v>9001</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H42" s="1">
         <v>0.05</v>
@@ -2367,7 +2420,7 @@
       <c r="J42" s="15">
         <v>100000</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="15">
         <f t="shared" si="5"/>
         <v>1680000</v>
       </c>
@@ -2380,7 +2433,7 @@
         <v>9008</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H43" s="1">
         <v>0.05</v>
@@ -2392,7 +2445,7 @@
       <c r="J43" s="15">
         <v>100000</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="15">
         <f t="shared" si="5"/>
         <v>1680000</v>
       </c>
@@ -2405,7 +2458,7 @@
         <v>9010</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H44" s="1">
         <v>0.05</v>
@@ -2417,7 +2470,7 @@
       <c r="J44" s="15">
         <v>20000</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="15">
         <f t="shared" si="5"/>
         <v>336000</v>
       </c>
@@ -2430,7 +2483,7 @@
         <v>9016</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H45" s="1">
         <v>0.04</v>
@@ -2442,7 +2495,7 @@
       <c r="J45" s="15">
         <v>1000</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="15">
         <f t="shared" si="5"/>
         <v>16800</v>
       </c>
@@ -2458,7 +2511,7 @@
         <v>9026</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H46" s="1">
         <v>0.04</v>
@@ -2470,7 +2523,7 @@
       <c r="J46" s="15">
         <v>10000</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="15">
         <f t="shared" si="5"/>
         <v>168000</v>
       </c>
@@ -2483,7 +2536,7 @@
         <v>9049</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H47" s="1">
         <v>0.04</v>
@@ -2495,7 +2548,7 @@
       <c r="J47" s="15">
         <v>10000</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="15">
         <f t="shared" si="5"/>
         <v>168000</v>
       </c>
@@ -2508,7 +2561,7 @@
         <v>9048</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H48" s="1">
         <v>0.04</v>
@@ -2520,12 +2573,12 @@
       <c r="J48" s="15">
         <v>10000</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="15">
         <f t="shared" si="5"/>
         <v>168000</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E49" s="12">
         <v>15</v>
       </c>
@@ -2533,7 +2586,7 @@
         <v>9064</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H49" s="1">
         <v>0.04</v>
@@ -2545,12 +2598,12 @@
       <c r="J49" s="15">
         <v>5000</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="15">
         <f t="shared" si="5"/>
         <v>84000</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E50" s="13">
         <v>16</v>
       </c>
@@ -2558,7 +2611,7 @@
         <v>9017</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H50" s="1">
         <v>0.03</v>
@@ -2570,7 +2623,7 @@
       <c r="J50" s="15">
         <v>3</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="15">
         <f t="shared" si="5"/>
         <v>50.400000000000006</v>
       </c>
@@ -2578,7 +2631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E51" s="13">
         <v>17</v>
       </c>
@@ -2586,7 +2639,7 @@
         <v>9027</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H51" s="1">
         <v>0.03</v>
@@ -2598,12 +2651,12 @@
       <c r="J51" s="15">
         <v>3</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="15">
         <f t="shared" si="5"/>
         <v>50.400000000000006</v>
       </c>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E52" s="13">
         <v>18</v>
       </c>
@@ -2611,7 +2664,7 @@
         <v>9028</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H52" s="1">
         <v>0.03</v>
@@ -2623,12 +2676,12 @@
       <c r="J52" s="15">
         <v>5</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="15">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E53" s="13">
         <v>19</v>
       </c>
@@ -2636,7 +2689,7 @@
         <v>9033</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H53" s="1">
         <v>0.03</v>
@@ -2648,12 +2701,12 @@
       <c r="J53" s="15">
         <v>3</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="15">
         <f t="shared" si="5"/>
         <v>50.400000000000006</v>
       </c>
     </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E54" s="13">
         <v>20</v>
       </c>
@@ -2661,7 +2714,7 @@
         <v>9038</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H54" s="1">
         <v>0.03</v>
@@ -2673,12 +2726,12 @@
       <c r="J54" s="15">
         <v>3</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="15">
         <f t="shared" si="5"/>
         <v>50.400000000000006</v>
       </c>
     </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E55" s="14">
         <v>21</v>
       </c>
@@ -2686,7 +2739,7 @@
         <v>9044</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H55" s="1">
         <v>0.02</v>
@@ -2698,7 +2751,7 @@
       <c r="J55" s="15">
         <v>3</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="15">
         <f t="shared" si="5"/>
         <v>50.400000000000006</v>
       </c>
@@ -2706,7 +2759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E56" s="14">
         <v>22</v>
       </c>
@@ -2714,7 +2767,7 @@
         <v>9041</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H56" s="1">
         <v>0.02</v>
@@ -2726,12 +2779,12 @@
       <c r="J56" s="15">
         <v>2</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="15">
         <f t="shared" si="5"/>
         <v>33.6</v>
       </c>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E57" s="14">
         <v>23</v>
       </c>
@@ -2739,7 +2792,7 @@
         <v>9055</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H57" s="1">
         <v>0.02</v>
@@ -2751,12 +2804,12 @@
       <c r="J57" s="15">
         <v>2</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="15">
         <f t="shared" si="5"/>
         <v>33.6</v>
       </c>
     </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E58" s="14">
         <v>24</v>
       </c>
@@ -2764,7 +2817,7 @@
         <v>9050</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H58" s="1">
         <v>0.02</v>
@@ -2776,12 +2829,12 @@
       <c r="J58" s="15">
         <v>2</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="15">
         <f t="shared" si="5"/>
         <v>33.6</v>
       </c>
     </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E59" s="14">
         <v>25</v>
       </c>
@@ -2789,7 +2842,7 @@
         <v>9053</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H59" s="1">
         <v>0.02</v>
@@ -2801,18 +2854,732 @@
       <c r="J59" s="15">
         <v>2</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="15">
         <f>J59*$C$9</f>
         <v>33.6</v>
       </c>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H60" s="2">
         <f>SUM(H35:H59)</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="I60" s="2">
         <f>SUM(I35:I59)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="6">
+        <v>42</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="7">
+        <v>10</v>
+      </c>
+      <c r="E65" s="10">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>9026</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I65" s="1">
+        <f>H65*100</f>
+        <v>6</v>
+      </c>
+      <c r="J65" s="15">
+        <v>100000</v>
+      </c>
+      <c r="K65" s="15">
+        <f>J65*$C$9</f>
+        <v>1680000</v>
+      </c>
+      <c r="L65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+      <c r="C66" s="7"/>
+      <c r="E66" s="10">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>9016</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" ref="I66:I89" si="6">H66*100</f>
+        <v>6</v>
+      </c>
+      <c r="J66" s="15">
+        <v>50000</v>
+      </c>
+      <c r="K66" s="15">
+        <f t="shared" ref="K66" si="7">J66*$C$9</f>
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="7">
+        <f>C64*C65</f>
+        <v>420</v>
+      </c>
+      <c r="E67" s="10">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>9032</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J67" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="K67" s="15">
+        <f>J67*$C$9</f>
+        <v>168000000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+      <c r="C68" s="7"/>
+      <c r="E68" s="10">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>9043</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J68" s="15">
+        <v>5000000</v>
+      </c>
+      <c r="K68" s="15">
+        <f t="shared" ref="K68:K88" si="8">J68*$C$9</f>
+        <v>84000000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="7">
+        <v>25</v>
+      </c>
+      <c r="E69" s="10">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>9049</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J69" s="15">
+        <v>100000</v>
+      </c>
+      <c r="K69" s="15">
+        <f t="shared" si="8"/>
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="8">
+        <f>C67/C69</f>
+        <v>16.8</v>
+      </c>
+      <c r="E70" s="11">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>9048</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J70" s="15">
+        <v>100000</v>
+      </c>
+      <c r="K70" s="15">
+        <f t="shared" si="8"/>
+        <v>1680000</v>
+      </c>
+      <c r="L70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E71" s="11">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>9062</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J71" s="15">
+        <v>50000</v>
+      </c>
+      <c r="K71" s="15">
+        <f t="shared" si="8"/>
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E72" s="11">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>9065</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J72" s="15">
+        <v>10000</v>
+      </c>
+      <c r="K72" s="15">
+        <f t="shared" si="8"/>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E73" s="11">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>9064</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J73" s="15">
+        <v>10000</v>
+      </c>
+      <c r="K73" s="15">
+        <f t="shared" si="8"/>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E74" s="11">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>9023</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J74" s="15">
+        <v>10</v>
+      </c>
+      <c r="K74" s="15">
+        <f t="shared" si="8"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E75" s="12">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>9017</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J75" s="15">
+        <v>10</v>
+      </c>
+      <c r="K75" s="15">
+        <f t="shared" si="8"/>
+        <v>168</v>
+      </c>
+      <c r="L75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E76" s="12">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <v>9027</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J76" s="15">
+        <v>10</v>
+      </c>
+      <c r="K76" s="15">
+        <f t="shared" si="8"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E77" s="12">
+        <v>13</v>
+      </c>
+      <c r="F77">
+        <v>9028</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J77" s="15">
+        <v>10</v>
+      </c>
+      <c r="K77" s="15">
+        <f t="shared" si="8"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E78" s="12">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>9033</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J78" s="15">
+        <v>10</v>
+      </c>
+      <c r="K78" s="15">
+        <f t="shared" si="8"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E79" s="12">
+        <v>15</v>
+      </c>
+      <c r="F79">
+        <v>9050</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J79" s="15">
+        <v>5</v>
+      </c>
+      <c r="K79" s="15">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E80" s="13">
+        <v>16</v>
+      </c>
+      <c r="F80">
+        <v>9038</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J80" s="15">
+        <v>10</v>
+      </c>
+      <c r="K80" s="15">
+        <f t="shared" si="8"/>
+        <v>168</v>
+      </c>
+      <c r="L80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E81" s="13">
+        <v>17</v>
+      </c>
+      <c r="F81">
+        <v>9044</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J81" s="15">
+        <v>10</v>
+      </c>
+      <c r="K81" s="15">
+        <f t="shared" si="8"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E82" s="13">
+        <v>18</v>
+      </c>
+      <c r="F82">
+        <v>9041</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J82" s="15">
+        <v>5</v>
+      </c>
+      <c r="K82" s="15">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E83" s="13">
+        <v>19</v>
+      </c>
+      <c r="F83">
+        <v>9055</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J83" s="15">
+        <v>5</v>
+      </c>
+      <c r="K83" s="15">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E84" s="13">
+        <v>20</v>
+      </c>
+      <c r="F84">
+        <v>9057</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J84" s="15">
+        <v>5</v>
+      </c>
+      <c r="K84" s="15">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E85" s="14">
+        <v>21</v>
+      </c>
+      <c r="F85">
+        <v>9053</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J85" s="15">
+        <v>5</v>
+      </c>
+      <c r="K85" s="15">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="L85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E86" s="14">
+        <v>22</v>
+      </c>
+      <c r="F86">
+        <v>9063</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J86" s="15">
+        <v>5</v>
+      </c>
+      <c r="K86" s="15">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E87" s="14">
+        <v>23</v>
+      </c>
+      <c r="F87">
+        <v>9066</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J87" s="15">
+        <v>5</v>
+      </c>
+      <c r="K87" s="15">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E88" s="14">
+        <v>24</v>
+      </c>
+      <c r="F88">
+        <v>9068</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J88" s="15">
+        <v>5</v>
+      </c>
+      <c r="K88" s="15">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E89" s="14">
+        <v>25</v>
+      </c>
+      <c r="F89">
+        <v>9039</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J89" s="15">
+        <v>5</v>
+      </c>
+      <c r="K89" s="15">
+        <f>J89*$C$9</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="H90" s="2">
+        <f>SUM(H65:H89)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I90" s="2">
+        <f>SUM(I65:I89)</f>
         <v>100</v>
       </c>
     </row>
